--- a/data/trans_dic/POLIPATOLOGIA_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,9</t>
+          <t>5,87; 8,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,0</t>
+          <t>7,94; 12,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 11,3</t>
+          <t>7,34; 11,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,34; 25,87</t>
+          <t>19,0; 25,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 15,19</t>
+          <t>11,51; 15,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 22,39</t>
+          <t>17,89; 22,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,51; 24,12</t>
+          <t>18,54; 24,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,37; 40,62</t>
+          <t>35,24; 40,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 11,81</t>
+          <t>9,42; 11,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 17,6</t>
+          <t>14,06; 17,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 17,96</t>
+          <t>14,25; 18,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,45; 33,81</t>
+          <t>29,38; 33,7</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,23</t>
+          <t>0,99; 2,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,04</t>
+          <t>1,0; 2,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,51</t>
+          <t>1,34; 2,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 6,99</t>
+          <t>3,96; 6,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,94</t>
+          <t>2,18; 3,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,95</t>
+          <t>2,9; 4,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,06</t>
+          <t>4,89; 7,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 44,61</t>
+          <t>10,39; 41,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,73</t>
+          <t>1,68; 2,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,13</t>
+          <t>2,07; 3,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,52</t>
+          <t>3,26; 4,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 27,63</t>
+          <t>7,86; 27,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,78</t>
+          <t>1,08; 3,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,74</t>
+          <t>0,41; 3,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,74</t>
+          <t>1,02; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,67</t>
+          <t>2,76; 5,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,53</t>
+          <t>0,84; 3,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,68</t>
+          <t>1,97; 5,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,29</t>
+          <t>1,83; 5,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 10,29</t>
+          <t>6,8; 10,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,0</t>
+          <t>1,16; 3,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,68</t>
+          <t>1,39; 3,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,76</t>
+          <t>1,7; 3,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,45</t>
+          <t>5,13; 7,33</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,04</t>
+          <t>2,83; 4,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,48</t>
+          <t>3,16; 4,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,23</t>
+          <t>2,9; 4,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,94</t>
+          <t>6,07; 8,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,69</t>
+          <t>5,87; 7,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 10,93</t>
+          <t>8,94; 11,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 10,99</t>
+          <t>8,84; 10,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,8; 39,12</t>
+          <t>15,9; 35,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,65</t>
+          <t>4,61; 5,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 7,57</t>
+          <t>6,27; 7,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,38</t>
+          <t>6,06; 7,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 23,76</t>
+          <t>11,69; 23,59</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>74535</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>95648</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69931</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>113857</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>172670</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>267506</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>211081</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>286952</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>247205</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>363154</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>281012</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>400808</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60586; 91876</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>77395; 117024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55395; 85224</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>97821; 130204</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>151329; 197658</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>239365; 301048</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>184385; 240598</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>266217; 308204</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>220966; 277858</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>325218; 400592</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>249262; 314820</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>373210; 428140</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25552</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27995</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38616</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>134150</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45474</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67930</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>117735</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>424697</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>71026</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95926</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>156351</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>558846</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16760; 38121</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>19556; 39971</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27828; 52820</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>90706; 159970</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>34606; 60791</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51047; 86508</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>97205; 141631</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>232432; 928365</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>55251; 89375</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>76995; 119262</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>132666; 182249</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>355769; 1248129</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11750</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6208</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10937</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26034</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8404</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>15570</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17344</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>55317</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20154</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21778</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28281</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81350</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5943; 19925</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1953; 14421</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5585; 20718</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17861; 35724</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3992; 16004</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9024; 25595</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10024; 27730</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44919; 68920</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11909; 31584</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13105; 35520</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18599; 42762</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>67097; 95821</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1452</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>111838</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>129852</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>119484</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>274040</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>226549</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>351006</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>346161</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>766965</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>338386</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>480858</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>465645</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1041005</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>92695; 134837</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>108066; 155514</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>98077; 141177</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>209582; 309959</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>198422; 260679</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>317635; 392157</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>312116; 386867</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>581056; 1312265</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>306644; 378429</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>437582; 528368</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>418556; 509824</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>830319; 1676120</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>